--- a/1804HNdata.xlsx
+++ b/1804HNdata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AD6FD9-B6CD-FC48-9705-037301E77BF2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA8718F-472C-5342-9565-D28359396F86}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{20935FDC-6F6F-C34A-BABF-257A999A713F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{20935FDC-6F6F-C34A-BABF-257A999A713F}"/>
   </bookViews>
   <sheets>
-    <sheet name="株高" sheetId="1" r:id="rId1"/>
-    <sheet name="G4" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="T2-01-02" sheetId="4" r:id="rId1"/>
+    <sheet name="株高" sheetId="1" r:id="rId2"/>
+    <sheet name="G4" sheetId="2" r:id="rId3"/>
+    <sheet name="GAD1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>T2-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +95,24 @@
   </si>
   <si>
     <t>GAD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>率（无）</t>
+    <rPh sb="0" eb="1">
+      <t>w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长</t>
+    <rPh sb="0" eb="1">
+      <t>sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,6 +479,1076 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59389332-FE83-AA4B-9727-ADEB6361C6A6}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="5" width="7" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="7" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>108</v>
+      </c>
+      <c r="F10" s="1">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1">
+        <v>96</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>67</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1">
+        <v>92</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>64</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>57</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>59</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1">
+        <v>62</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>62</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>73</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1">
+        <v>97</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1">
+        <v>80</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>64</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>99</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66E6A8D-CDDC-2847-BB7F-C734A8F0B4F7}">
   <dimension ref="A1:O48"/>
   <sheetViews>
@@ -1391,7 +2480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA92FC8-DB0A-0349-9186-04028DC4F4A2}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -2028,17 +3117,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B0D3D-039B-804B-BABE-EA51B555B604}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="6.5" style="1"/>
+    <col min="1" max="5" width="6.5" style="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="6.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2058,10 +3149,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2077,6 +3168,15 @@
       <c r="D2" s="1">
         <v>21</v>
       </c>
+      <c r="E2" s="1">
+        <v>124</v>
+      </c>
+      <c r="F2" s="1">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -2088,6 +3188,15 @@
       <c r="C3" s="1">
         <v>9</v>
       </c>
+      <c r="D3" s="1">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -2099,6 +3208,15 @@
       <c r="C4" s="1">
         <v>9</v>
       </c>
+      <c r="D4" s="1">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -2110,6 +3228,15 @@
       <c r="C5" s="1">
         <v>8</v>
       </c>
+      <c r="D5" s="1">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -2121,6 +3248,15 @@
       <c r="C6" s="1">
         <v>7</v>
       </c>
+      <c r="D6" s="1">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>108</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -2132,6 +3268,15 @@
       <c r="C7" s="1">
         <v>9</v>
       </c>
+      <c r="D7" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -2143,6 +3288,15 @@
       <c r="C8" s="1">
         <v>7</v>
       </c>
+      <c r="D8" s="1">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>105</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
@@ -2154,6 +3308,15 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
+      <c r="D9" s="1">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>120</v>
+      </c>
+      <c r="F9" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -2164,6 +3327,15 @@
       </c>
       <c r="C10" s="1">
         <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1">
+        <v>153</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2176,6 +3348,15 @@
       <c r="C11" s="1">
         <v>7</v>
       </c>
+      <c r="D11" s="1">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1">
+        <v>109</v>
+      </c>
+      <c r="F11" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
@@ -2187,6 +3368,15 @@
       <c r="C12" s="1">
         <v>7</v>
       </c>
+      <c r="D12" s="1">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1">
+        <v>122</v>
+      </c>
+      <c r="F12" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
@@ -2198,6 +3388,15 @@
       <c r="C13" s="1">
         <v>8</v>
       </c>
+      <c r="D13" s="1">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>157</v>
+      </c>
+      <c r="F13" s="1">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -2209,6 +3408,15 @@
       <c r="C14" s="1">
         <v>9</v>
       </c>
+      <c r="D14" s="1">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>102</v>
+      </c>
+      <c r="F14" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -2220,6 +3428,15 @@
       <c r="C15" s="1">
         <v>8</v>
       </c>
+      <c r="D15" s="1">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>116</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
@@ -2231,8 +3448,17 @@
       <c r="C16" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
+        <v>116</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2242,8 +3468,17 @@
       <c r="C17" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2253,8 +3488,17 @@
       <c r="C18" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1">
+        <v>113</v>
+      </c>
+      <c r="F18" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2264,8 +3508,17 @@
       <c r="C19" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1">
+        <v>108</v>
+      </c>
+      <c r="F19" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2275,8 +3528,17 @@
       <c r="C20" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2286,8 +3548,17 @@
       <c r="C21" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2297,8 +3568,17 @@
       <c r="C22" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="1">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1">
+        <v>150</v>
+      </c>
+      <c r="F22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2308,8 +3588,17 @@
       <c r="C23" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="1">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1">
+        <v>117</v>
+      </c>
+      <c r="F23" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2319,8 +3608,17 @@
       <c r="C24" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="1">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1">
+        <v>95</v>
+      </c>
+      <c r="F24" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2330,8 +3628,17 @@
       <c r="C25" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="1">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1">
+        <v>144</v>
+      </c>
+      <c r="F25" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2341,8 +3648,17 @@
       <c r="C26" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1">
+        <v>111</v>
+      </c>
+      <c r="F26" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2352,8 +3668,17 @@
       <c r="C27" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1">
+        <v>125</v>
+      </c>
+      <c r="F27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2363,8 +3688,17 @@
       <c r="C28" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="1">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>139</v>
+      </c>
+      <c r="F28" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2374,8 +3708,17 @@
       <c r="C29" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="1">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1">
+        <v>128</v>
+      </c>
+      <c r="F29" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2385,8 +3728,17 @@
       <c r="C30" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="1">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1">
+        <v>115</v>
+      </c>
+      <c r="F30" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2396,8 +3748,17 @@
       <c r="C31" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="1">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1">
+        <v>95</v>
+      </c>
+      <c r="F31" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2407,8 +3768,17 @@
       <c r="C32" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="1">
+        <v>23</v>
+      </c>
+      <c r="E32" s="1">
+        <v>117</v>
+      </c>
+      <c r="F32" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2418,8 +3788,17 @@
       <c r="C33" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="1">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1">
+        <v>121</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2429,8 +3808,17 @@
       <c r="C34" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>107</v>
+      </c>
+      <c r="F34" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2440,8 +3828,17 @@
       <c r="C35" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="1">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1">
+        <v>113</v>
+      </c>
+      <c r="F35" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2451,8 +3848,17 @@
       <c r="C36" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="1">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1">
+        <v>108</v>
+      </c>
+      <c r="F36" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2462,8 +3868,17 @@
       <c r="C37" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="1">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1">
+        <v>107</v>
+      </c>
+      <c r="F37" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2473,8 +3888,17 @@
       <c r="C38" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="1">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1">
+        <v>119</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
